--- a/NFL_Data_Working/2002_def_rank.xlsx
+++ b/NFL_Data_Working/2002_def_rank.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$33</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -241,6 +241,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -568,13 +573,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -636,7 +644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -698,384 +706,384 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>18.899999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="E3" s="1">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="F3" s="3">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="G3" s="1">
-        <v>290.39999999999998</v>
+        <v>297.10000000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I3" s="1">
-        <v>16.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="L3" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>782</v>
+        <v>112</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>969</v>
       </c>
       <c r="R3" s="4">
-        <v>1.2777777777777779</v>
+        <v>1.2076388888888889</v>
       </c>
       <c r="S3" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="T3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>18.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>301</v>
-      </c>
-      <c r="F4" s="3">
-        <v>974</v>
+        <v>279</v>
+      </c>
+      <c r="F4" s="1">
+        <v>985</v>
       </c>
       <c r="G4" s="1">
-        <v>291</v>
+        <v>309.3</v>
       </c>
       <c r="H4" s="1">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>17.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L4" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N4" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O4" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="1">
-        <v>826</v>
+        <v>897</v>
       </c>
       <c r="R4" s="4">
-        <v>1.1937499999999999</v>
+        <v>1.2027777777777777</v>
       </c>
       <c r="S4" s="1">
         <v>23</v>
       </c>
       <c r="T4" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>15.1</v>
+        <v>18.8</v>
       </c>
       <c r="E5" s="1">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="F5" s="3">
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="G5" s="1">
-        <v>297.10000000000002</v>
+        <v>291</v>
       </c>
       <c r="H5" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I5" s="1">
-        <v>17</v>
+        <v>17.8</v>
       </c>
       <c r="J5" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="L5" s="1">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1">
         <v>31</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>826</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1.1937499999999999</v>
+      </c>
+      <c r="S5" s="1">
+        <v>23</v>
+      </c>
+      <c r="T5" s="1">
         <v>9</v>
       </c>
-      <c r="N5" s="1">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1">
-        <v>39</v>
-      </c>
-      <c r="P5" s="1">
-        <v>112</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>969</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1.2076388888888889</v>
-      </c>
-      <c r="S5" s="1">
-        <v>45</v>
-      </c>
-      <c r="T5" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
       </c>
       <c r="D6" s="1">
-        <v>22.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="F6" s="3">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="G6" s="1">
-        <v>299.2</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I6" s="1">
-        <v>17.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="1">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="L6" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" s="1">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>782</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1.2777777777777779</v>
+      </c>
+      <c r="S6" s="1">
         <v>36</v>
       </c>
-      <c r="P6" s="1">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>972</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="S6" s="1">
-        <v>26</v>
-      </c>
       <c r="T6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="F7" s="1">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="G7" s="1">
-        <v>301.60000000000002</v>
+        <v>311.2</v>
       </c>
       <c r="H7" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>18.600000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K7" s="1">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="L7" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M7" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N7" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>829</v>
+        <v>103</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>787</v>
       </c>
       <c r="R7" s="4">
-        <v>1.2562499999999999</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="S7" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T7" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>21.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>345</v>
-      </c>
-      <c r="F8" s="3">
-        <v>982</v>
+        <v>313</v>
+      </c>
+      <c r="F8" s="1">
+        <v>963</v>
       </c>
       <c r="G8" s="1">
-        <v>302.2</v>
+        <v>306.8</v>
       </c>
       <c r="H8" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I8" s="1">
         <v>17.399999999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L8" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M8" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N8" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P8" s="1">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>927</v>
+        <v>102</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>746</v>
       </c>
       <c r="R8" s="4">
-        <v>1.1604166666666667</v>
+        <v>1.2215277777777778</v>
       </c>
       <c r="S8" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="T8" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -1084,211 +1092,211 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>313</v>
-      </c>
-      <c r="F9" s="1">
-        <v>963</v>
+        <v>314</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1002</v>
       </c>
       <c r="G9" s="1">
-        <v>306.8</v>
+        <v>333.4</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="I9" s="1">
-        <v>17.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L9" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" s="1">
         <v>21</v>
       </c>
       <c r="O9" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>746</v>
+        <v>112</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>920</v>
       </c>
       <c r="R9" s="4">
-        <v>1.2215277777777778</v>
+        <v>1.211111111111111</v>
       </c>
       <c r="S9" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="T9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>17.399999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="E10" s="1">
-        <v>279</v>
-      </c>
-      <c r="F10" s="1">
-        <v>985</v>
+        <v>315</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1042</v>
       </c>
       <c r="G10" s="1">
-        <v>309.3</v>
+        <v>333.4</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>16.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="J10" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L10" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M10" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="1">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="P10" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>897</v>
+        <v>96</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>717</v>
       </c>
       <c r="R10" s="4">
-        <v>1.2027777777777777</v>
+        <v>1.3062500000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F11" s="3">
-        <v>974</v>
+        <v>1024</v>
       </c>
       <c r="G11" s="1">
-        <v>310.2</v>
+        <v>334.2</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="I11" s="1">
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="J11" s="1">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L11" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O11" s="1">
         <v>50</v>
       </c>
       <c r="P11" s="1">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1">
-        <v>853</v>
+        <v>726</v>
       </c>
       <c r="R11" s="4">
-        <v>1.1444444444444444</v>
+        <v>1.2756944444444445</v>
       </c>
       <c r="S11" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="T11" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="E12" s="1">
-        <v>304</v>
-      </c>
-      <c r="F12" s="1">
-        <v>997</v>
+        <v>324</v>
+      </c>
+      <c r="F12" s="3">
+        <v>974</v>
       </c>
       <c r="G12" s="1">
-        <v>311.2</v>
+        <v>310.2</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>19.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="1">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L12" s="1">
         <v>38</v>
@@ -1297,28 +1305,28 @@
         <v>9</v>
       </c>
       <c r="N12" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O12" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P12" s="1">
-        <v>103</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>787</v>
+        <v>99</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>853</v>
       </c>
       <c r="R12" s="4">
-        <v>1.2083333333333333</v>
+        <v>1.1444444444444444</v>
       </c>
       <c r="S12" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1380,308 +1388,308 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>23.1</v>
+        <v>20.6</v>
       </c>
       <c r="E14" s="1">
-        <v>369</v>
-      </c>
-      <c r="F14" s="1">
-        <v>944</v>
+        <v>329</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1079</v>
       </c>
       <c r="G14" s="1">
-        <v>314.10000000000002</v>
+        <v>329.2</v>
       </c>
       <c r="H14" s="1">
-        <v>5.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>17.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="J14" s="1">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="K14" s="1">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="L14" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M14" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" s="1">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="P14" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>755</v>
+        <v>119</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>919</v>
       </c>
       <c r="R14" s="4">
-        <v>1.2236111111111112</v>
+        <v>1.346527777777778</v>
       </c>
       <c r="S14" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="T14" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>351</v>
-      </c>
-      <c r="F15" s="1">
-        <v>978</v>
+        <v>336</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1008</v>
       </c>
       <c r="G15" s="1">
-        <v>322.39999999999998</v>
+        <v>341.4</v>
       </c>
       <c r="H15" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I15" s="1">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K15" s="1">
         <v>211</v>
       </c>
       <c r="L15" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O15" s="1">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="P15" s="1">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="1">
-        <v>681</v>
+        <v>809</v>
       </c>
       <c r="R15" s="4">
-        <v>1.1902777777777778</v>
+        <v>1.2972222222222223</v>
       </c>
       <c r="S15" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T15" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>24.8</v>
+        <v>21.5</v>
       </c>
       <c r="E16" s="1">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="F16" s="1">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="G16" s="1">
-        <v>324.3</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>18.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K16" s="1">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L16" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M16" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N16" s="1">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>829</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1.2562499999999999</v>
+      </c>
+      <c r="S16" s="1">
         <v>23</v>
       </c>
-      <c r="O16" s="1">
+      <c r="T16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>345</v>
+      </c>
+      <c r="F17" s="3">
+        <v>982</v>
+      </c>
+      <c r="G17" s="1">
+        <v>302.2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>98</v>
+      </c>
+      <c r="K17" s="1">
+        <v>225</v>
+      </c>
+      <c r="L17" s="1">
         <v>44</v>
       </c>
-      <c r="P16" s="1">
-        <v>117</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1053</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1.2270833333333333</v>
-      </c>
-      <c r="S16" s="1">
-        <v>20</v>
-      </c>
-      <c r="T16" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>356</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1056</v>
-      </c>
-      <c r="G17" s="1">
-        <v>326.89999999999998</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5</v>
-      </c>
-      <c r="I17" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>83</v>
-      </c>
-      <c r="K17" s="1">
-        <v>234</v>
-      </c>
-      <c r="L17" s="1">
-        <v>36</v>
-      </c>
       <c r="M17" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P17" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="1">
-        <v>955</v>
+        <v>927</v>
       </c>
       <c r="R17" s="4">
-        <v>1.3291666666666666</v>
+        <v>1.1604166666666667</v>
       </c>
       <c r="S17" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>28.5</v>
+        <v>21.6</v>
       </c>
       <c r="E18" s="1">
-        <v>456</v>
+        <v>346</v>
       </c>
       <c r="F18" s="3">
-        <v>976</v>
+        <v>1032</v>
       </c>
       <c r="G18" s="1">
-        <v>329.1</v>
+        <v>336.1</v>
       </c>
       <c r="H18" s="1">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I18" s="1">
         <v>19.7</v>
       </c>
       <c r="J18" s="1">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K18" s="1">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="L18" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O18" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P18" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="1">
-        <v>867</v>
+        <v>928</v>
       </c>
       <c r="R18" s="4">
-        <v>1.2958333333333334</v>
+        <v>1.2930555555555556</v>
       </c>
       <c r="S18" s="1">
         <v>21</v>
@@ -1690,441 +1698,441 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>20.6</v>
+        <v>21.9</v>
       </c>
       <c r="E19" s="1">
-        <v>329</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1079</v>
+        <v>351</v>
+      </c>
+      <c r="F19" s="1">
+        <v>978</v>
       </c>
       <c r="G19" s="1">
-        <v>329.2</v>
+        <v>322.39999999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="I19" s="1">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="J19" s="1">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K19" s="1">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="L19" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M19" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" s="1">
         <v>11</v>
       </c>
       <c r="O19" s="1">
+        <v>73</v>
+      </c>
+      <c r="P19" s="1">
         <v>82</v>
       </c>
-      <c r="P19" s="1">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>919</v>
+      <c r="Q19" s="1">
+        <v>681</v>
       </c>
       <c r="R19" s="4">
-        <v>1.346527777777778</v>
+        <v>1.1902777777777778</v>
       </c>
       <c r="S19" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T19" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>19.7</v>
+        <v>22.1</v>
       </c>
       <c r="E20" s="1">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F20" s="3">
-        <v>1042</v>
+        <v>1077</v>
       </c>
       <c r="G20" s="1">
-        <v>333.4</v>
+        <v>334.6</v>
       </c>
       <c r="H20" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="J20" s="1">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K20" s="1">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="L20" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N20" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O20" s="1">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="P20" s="1">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>717</v>
+        <v>104</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>874</v>
       </c>
       <c r="R20" s="4">
-        <v>1.3062500000000001</v>
+        <v>1.3423611111111111</v>
       </c>
       <c r="S20" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T20" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <v>19.600000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="E21" s="1">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="F21" s="3">
-        <v>1002</v>
+        <v>1056</v>
       </c>
       <c r="G21" s="1">
-        <v>333.4</v>
+        <v>326.89999999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="J21" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21" s="1">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M21" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O21" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P21" s="1">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="1">
-        <v>920</v>
+        <v>955</v>
       </c>
       <c r="R21" s="4">
-        <v>1.211111111111111</v>
+        <v>1.3291666666666666</v>
       </c>
       <c r="S21" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T21" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>20</v>
+        <v>22.8</v>
       </c>
       <c r="E22" s="1">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="F22" s="3">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="G22" s="1">
-        <v>334.2</v>
+        <v>299.2</v>
       </c>
       <c r="H22" s="1">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I22" s="1">
-        <v>18.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K22" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L22" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M22" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O22" s="1">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P22" s="1">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="1">
-        <v>726</v>
+        <v>972</v>
       </c>
       <c r="R22" s="4">
-        <v>1.2756944444444445</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="S22" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T22" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>16</v>
       </c>
       <c r="D23" s="1">
-        <v>22.1</v>
+        <v>22.9</v>
       </c>
       <c r="E23" s="1">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F23" s="3">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="G23" s="1">
-        <v>334.6</v>
+        <v>377.1</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I23" s="1">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K23" s="1">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="L23" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M23" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O23" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P23" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="1">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="R23" s="4">
-        <v>1.3423611111111111</v>
+        <v>1.2993055555555555</v>
       </c>
       <c r="S23" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>16</v>
       </c>
       <c r="D24" s="1">
-        <v>21.6</v>
+        <v>23.1</v>
       </c>
       <c r="E24" s="1">
-        <v>346</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1032</v>
+        <v>369</v>
+      </c>
+      <c r="F24" s="1">
+        <v>944</v>
       </c>
       <c r="G24" s="1">
-        <v>336.1</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I24" s="1">
-        <v>19.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="K24" s="1">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L24" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M24" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N24" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O24" s="1">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="P24" s="1">
         <v>99</v>
       </c>
       <c r="Q24" s="1">
-        <v>928</v>
+        <v>755</v>
       </c>
       <c r="R24" s="4">
-        <v>1.2930555555555556</v>
+        <v>1.2236111111111112</v>
       </c>
       <c r="S24" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="T24" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>16</v>
       </c>
       <c r="D25" s="1">
-        <v>21</v>
+        <v>23.1</v>
       </c>
       <c r="E25" s="1">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="F25" s="3">
-        <v>1008</v>
+        <v>1083</v>
       </c>
       <c r="G25" s="1">
-        <v>341.4</v>
+        <v>365.8</v>
       </c>
       <c r="H25" s="1">
         <v>5.4</v>
       </c>
       <c r="I25" s="1">
-        <v>19.600000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="J25" s="1">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K25" s="1">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L25" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M25" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N25" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O25" s="1">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P25" s="1">
         <v>99</v>
       </c>
       <c r="Q25" s="1">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="R25" s="4">
-        <v>1.2972222222222223</v>
+        <v>1.3229166666666667</v>
       </c>
       <c r="S25" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T25" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2186,193 +2194,193 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>16</v>
       </c>
       <c r="D27" s="1">
-        <v>27.6</v>
+        <v>24.2</v>
       </c>
       <c r="E27" s="1">
-        <v>442</v>
-      </c>
-      <c r="F27" s="1">
-        <v>963</v>
+        <v>388</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1071</v>
       </c>
       <c r="G27" s="1">
-        <v>360.6</v>
+        <v>362.2</v>
       </c>
       <c r="H27" s="1">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I27" s="1">
-        <v>19.7</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J27" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K27" s="1">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="L27" s="1">
         <v>39</v>
       </c>
       <c r="M27" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N27" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O27" s="1">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="P27" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>824</v>
+        <v>110</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>953</v>
       </c>
       <c r="R27" s="4">
-        <v>1.2027777777777777</v>
+        <v>1.3194444444444444</v>
       </c>
       <c r="S27" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="T27" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>16</v>
       </c>
       <c r="D28" s="1">
-        <v>24.2</v>
+        <v>24.8</v>
       </c>
       <c r="E28" s="1">
-        <v>388</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1071</v>
+        <v>397</v>
+      </c>
+      <c r="F28" s="1">
+        <v>999</v>
       </c>
       <c r="G28" s="1">
-        <v>362.2</v>
+        <v>324.3</v>
       </c>
       <c r="H28" s="1">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I28" s="1">
-        <v>20.399999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J28" s="1">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L28" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M28" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28" s="1">
+        <v>23</v>
+      </c>
+      <c r="O28" s="1">
+        <v>44</v>
+      </c>
+      <c r="P28" s="1">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1053</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1.2270833333333333</v>
+      </c>
+      <c r="S28" s="1">
         <v>20</v>
       </c>
-      <c r="O28" s="1">
-        <v>60</v>
-      </c>
-      <c r="P28" s="1">
-        <v>110</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>953</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1.3194444444444444</v>
-      </c>
-      <c r="S28" s="1">
-        <v>29</v>
-      </c>
       <c r="T28" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>16</v>
       </c>
       <c r="D29" s="1">
-        <v>23.1</v>
+        <v>24.9</v>
       </c>
       <c r="E29" s="1">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="F29" s="3">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G29" s="1">
-        <v>365.8</v>
+        <v>390.5</v>
       </c>
       <c r="H29" s="1">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I29" s="1">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="J29" s="1">
+        <v>87</v>
+      </c>
+      <c r="K29" s="1">
+        <v>205</v>
+      </c>
+      <c r="L29" s="1">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1">
+        <v>17</v>
+      </c>
+      <c r="O29" s="1">
+        <v>59</v>
+      </c>
+      <c r="P29" s="1">
         <v>100</v>
       </c>
-      <c r="K29" s="1">
-        <v>215</v>
-      </c>
-      <c r="L29" s="1">
-        <v>46</v>
-      </c>
-      <c r="M29" s="1">
-        <v>6</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="Q29" s="3">
+        <v>827</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1.3034722222222224</v>
+      </c>
+      <c r="S29" s="1">
+        <v>20</v>
+      </c>
+      <c r="T29" s="1">
         <v>13</v>
       </c>
-      <c r="O29" s="1">
-        <v>46</v>
-      </c>
-      <c r="P29" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>816</v>
-      </c>
-      <c r="R29" s="4">
-        <v>1.3229166666666667</v>
-      </c>
-      <c r="S29" s="1">
-        <v>22</v>
-      </c>
-      <c r="T29" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2434,69 +2442,69 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
         <v>16</v>
       </c>
       <c r="D31" s="1">
-        <v>22.9</v>
+        <v>27.6</v>
       </c>
       <c r="E31" s="1">
-        <v>367</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1056</v>
+        <v>442</v>
+      </c>
+      <c r="F31" s="1">
+        <v>963</v>
       </c>
       <c r="G31" s="1">
-        <v>377.1</v>
+        <v>360.6</v>
       </c>
       <c r="H31" s="1">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="1">
-        <v>20.399999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="J31" s="1">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K31" s="1">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="L31" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M31" s="1">
+        <v>5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>15</v>
+      </c>
+      <c r="O31" s="1">
+        <v>33</v>
+      </c>
+      <c r="P31" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>824</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1.2027777777777777</v>
+      </c>
+      <c r="S31" s="1">
+        <v>16</v>
+      </c>
+      <c r="T31" s="1">
         <v>7</v>
       </c>
-      <c r="N31" s="1">
-        <v>11</v>
-      </c>
-      <c r="O31" s="1">
-        <v>64</v>
-      </c>
-      <c r="P31" s="1">
-        <v>103</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>854</v>
-      </c>
-      <c r="R31" s="4">
-        <v>1.2993055555555555</v>
-      </c>
-      <c r="S31" s="1">
-        <v>16</v>
-      </c>
-      <c r="T31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2558,72 +2566,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <v>16</v>
       </c>
       <c r="D33" s="1">
-        <v>24.9</v>
+        <v>28.5</v>
       </c>
       <c r="E33" s="1">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="F33" s="3">
-        <v>1081</v>
+        <v>976</v>
       </c>
       <c r="G33" s="1">
-        <v>390.5</v>
+        <v>329.1</v>
       </c>
       <c r="H33" s="1">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I33" s="1">
-        <v>22.9</v>
+        <v>19.7</v>
       </c>
       <c r="J33" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K33" s="1">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L33" s="1">
         <v>42</v>
       </c>
       <c r="M33" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N33" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O33" s="1">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P33" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>827</v>
+        <v>101</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>867</v>
       </c>
       <c r="R33" s="4">
-        <v>1.3034722222222224</v>
+        <v>1.2958333333333334</v>
       </c>
       <c r="S33" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T33" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T33">
     <sortState ref="A2:T33">
-      <sortCondition ref="G1:G33"/>
+      <sortCondition ref="D1:D33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
